--- a/Queer_EU_survey.xlsx
+++ b/Queer_EU_survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lex/Documents/GitHub/Week 5/LexMidBootcampProj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20085BC9-2EE1-BA4C-BE79-9A1301B7596D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BC808B-5873-5440-9F89-7B7430A82599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7920" windowWidth="22900" windowHeight="20880" xr2:uid="{B79FC25C-92AE-7D48-A8AC-0EC30F79066F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>DF name</t>
   </si>
@@ -118,13 +118,34 @@
   </si>
   <si>
     <t>count per type of respondent</t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>https://public.tableau.com/views/Subsets_16444055508150/Howdoparticipantsidentify?:language=en-GB&amp;publish=yes&amp;:display_count=n&amp;:origin=viz_share_link</t>
+  </si>
+  <si>
+    <t>https://public.tableau.com/views/QESCountry/Respondentpercountrypercentage?:language=en-GB&amp;publish=yes&amp;:display_count=n&amp;:origin=viz_share_link</t>
+  </si>
+  <si>
+    <t>QES Country</t>
+  </si>
+  <si>
+    <t>Subsets/identify</t>
+  </si>
+  <si>
+    <t>b1_ab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +157,14 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,16 +196,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71219C4A-1952-6B45-9F0F-E998DEE945BE}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,39 +533,60 @@
     <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -541,7 +594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -549,7 +602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -557,7 +610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -565,7 +618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -573,7 +626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -581,7 +634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -589,7 +642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -597,7 +650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -605,7 +658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -613,7 +666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -621,7 +674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -630,6 +683,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{144632FC-08D0-E740-980B-7A2E4B187F79}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>